--- a/src/ExcelFile/CustommerTemplate/AddnewCus.xlsx
+++ b/src/ExcelFile/CustommerTemplate/AddnewCus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TMS_Client\src\ExcelFile\CustommerTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Mã Khách Hàng</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Mã GPS</t>
+  </si>
+  <si>
+    <t>Nhóm Khách Hàng</t>
+  </si>
+  <si>
+    <t>Phân Loại Khách Hàng</t>
+  </si>
+  <si>
+    <t>Trạng Thái</t>
   </si>
 </sst>
 </file>
@@ -392,28 +401,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,6 +455,15 @@
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
